--- a/Cache/Metrics/Metrics_12.xlsx
+++ b/Cache/Metrics/Metrics_12.xlsx
@@ -541,11 +541,11 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.28</v>
+        <v>80.87</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Fri Jun 14 09:56:33 2024</t>
+          <t>Fri Jun 14 10:34:42 2024</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,55 +591,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Balanced_variance</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Regular_variance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score_variance</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Sampling frequency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ECG used</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EMG used</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>EDA used</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>EEG used</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RR used</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Timeframes length</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Dataset used</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Two_label</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Neural used</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Classifiers used</t>
         </is>
@@ -655,47 +670,56 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8286340852130325</v>
+        <v>0.8407633231317442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7989690721649485</v>
+        <v>0.9046851449799778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8141652636206053</v>
+        <v>0.8909838024816039</v>
       </c>
       <c r="F2" t="n">
+        <v>0.03215643477591668</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.007252292872737633</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01141088970880642</v>
+      </c>
+      <c r="I2" t="n">
         <v>700</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
       <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
         <v>60</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>WESAD</t>
         </is>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
